--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2147,7 +2147,7 @@
     <t>Claim.total</t>
   </si>
   <si>
-    <t>Total claim cost</t>
+    <t>Total claim amount</t>
   </si>
   <si>
     <t>The total value of the all the items in the claim.</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$150</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2282,21 +2279,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2649,7 +2631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
@@ -2760,7 +2742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2871,7 +2853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2980,7 +2962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -3091,7 +3073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -3202,7 +3184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -3313,7 +3295,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -3424,7 +3406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -3535,7 +3517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3648,7 +3630,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3759,7 +3741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -3872,7 +3854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -3985,7 +3967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>174</v>
       </c>
@@ -4098,7 +4080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>182</v>
       </c>
@@ -4228,7 +4210,7 @@
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -4320,7 +4302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -4433,7 +4415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>202</v>
       </c>
@@ -4546,7 +4528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>210</v>
       </c>
@@ -4657,7 +4639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>216</v>
       </c>
@@ -4766,7 +4748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -4877,7 +4859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>228</v>
       </c>
@@ -4990,7 +4972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>236</v>
       </c>
@@ -5103,7 +5085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>244</v>
       </c>
@@ -5216,7 +5198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>250</v>
       </c>
@@ -5325,7 +5307,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>256</v>
       </c>
@@ -5436,7 +5418,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>259</v>
       </c>
@@ -5549,7 +5531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>264</v>
       </c>
@@ -5660,7 +5642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>269</v>
       </c>
@@ -5773,7 +5755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>276</v>
       </c>
@@ -5886,7 +5868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>281</v>
       </c>
@@ -5997,7 +5979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>286</v>
       </c>
@@ -6110,7 +6092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>291</v>
       </c>
@@ -6223,7 +6205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>296</v>
       </c>
@@ -6332,7 +6314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>297</v>
       </c>
@@ -6443,7 +6425,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>298</v>
       </c>
@@ -6556,7 +6538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>299</v>
       </c>
@@ -6667,7 +6649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>305</v>
       </c>
@@ -6780,7 +6762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>311</v>
       </c>
@@ -6893,7 +6875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>318</v>
       </c>
@@ -7004,7 +6986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>324</v>
       </c>
@@ -7115,7 +7097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>328</v>
       </c>
@@ -7224,7 +7206,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>329</v>
       </c>
@@ -7335,7 +7317,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>330</v>
       </c>
@@ -7448,7 +7430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>331</v>
       </c>
@@ -7559,7 +7541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>336</v>
       </c>
@@ -7670,7 +7652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>341</v>
       </c>
@@ -7783,7 +7765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>347</v>
       </c>
@@ -7896,7 +7878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>354</v>
       </c>
@@ -8007,7 +7989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>360</v>
       </c>
@@ -8120,7 +8102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>367</v>
       </c>
@@ -8229,7 +8211,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>368</v>
       </c>
@@ -8340,7 +8322,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>369</v>
       </c>
@@ -8453,7 +8435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>370</v>
       </c>
@@ -8564,7 +8546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>374</v>
       </c>
@@ -8677,7 +8659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>381</v>
       </c>
@@ -8788,7 +8770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>387</v>
       </c>
@@ -8897,7 +8879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>391</v>
       </c>
@@ -9010,7 +8992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>397</v>
       </c>
@@ -9123,7 +9105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>404</v>
       </c>
@@ -9234,7 +9216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>409</v>
       </c>
@@ -9343,7 +9325,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>410</v>
       </c>
@@ -9454,7 +9436,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>411</v>
       </c>
@@ -9567,7 +9549,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>412</v>
       </c>
@@ -9680,7 +9662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>417</v>
       </c>
@@ -9791,7 +9773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>424</v>
       </c>
@@ -9904,7 +9886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>431</v>
       </c>
@@ -10015,7 +9997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>437</v>
       </c>
@@ -10128,7 +10110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>444</v>
       </c>
@@ -10239,7 +10221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>448</v>
       </c>
@@ -10348,7 +10330,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>449</v>
       </c>
@@ -10459,7 +10441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>450</v>
       </c>
@@ -10572,7 +10554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>451</v>
       </c>
@@ -10683,7 +10665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>455</v>
       </c>
@@ -10796,7 +10778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>460</v>
       </c>
@@ -10907,7 +10889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>464</v>
       </c>
@@ -11018,7 +11000,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>471</v>
       </c>
@@ -11129,7 +11111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>476</v>
       </c>
@@ -11242,7 +11224,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>482</v>
       </c>
@@ -11351,7 +11333,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>483</v>
       </c>
@@ -11462,7 +11444,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>484</v>
       </c>
@@ -11575,7 +11557,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>485</v>
       </c>
@@ -11686,7 +11668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>489</v>
       </c>
@@ -11799,7 +11781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>494</v>
       </c>
@@ -11912,7 +11894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>499</v>
       </c>
@@ -12023,7 +12005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>504</v>
       </c>
@@ -12134,7 +12116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>508</v>
       </c>
@@ -12247,7 +12229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>513</v>
       </c>
@@ -12360,7 +12342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>519</v>
       </c>
@@ -12471,7 +12453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>523</v>
       </c>
@@ -12580,7 +12562,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>524</v>
       </c>
@@ -12691,7 +12673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>525</v>
       </c>
@@ -12804,7 +12786,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>526</v>
       </c>
@@ -12917,7 +12899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>532</v>
       </c>
@@ -13028,7 +13010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>538</v>
       </c>
@@ -13139,7 +13121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>543</v>
       </c>
@@ -13250,7 +13232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>547</v>
       </c>
@@ -13359,7 +13341,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>548</v>
       </c>
@@ -13470,7 +13452,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>549</v>
       </c>
@@ -13583,7 +13565,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>550</v>
       </c>
@@ -13694,7 +13676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>554</v>
       </c>
@@ -13805,7 +13787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>558</v>
       </c>
@@ -13916,7 +13898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>562</v>
       </c>
@@ -14027,7 +14009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>566</v>
       </c>
@@ -14138,7 +14120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>570</v>
       </c>
@@ -14249,7 +14231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>576</v>
       </c>
@@ -14362,7 +14344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>583</v>
       </c>
@@ -14475,7 +14457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>591</v>
       </c>
@@ -14588,7 +14570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>598</v>
       </c>
@@ -14701,7 +14683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>605</v>
       </c>
@@ -14812,7 +14794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>609</v>
       </c>
@@ -14923,7 +14905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>616</v>
       </c>
@@ -15034,7 +15016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>621</v>
       </c>
@@ -15145,7 +15127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>626</v>
       </c>
@@ -15258,7 +15240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>632</v>
       </c>
@@ -15371,7 +15353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>637</v>
       </c>
@@ -15482,7 +15464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>638</v>
       </c>
@@ -15595,7 +15577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>645</v>
       </c>
@@ -15706,7 +15688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>650</v>
       </c>
@@ -15819,7 +15801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>657</v>
       </c>
@@ -15930,7 +15912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>659</v>
       </c>
@@ -16039,7 +16021,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>660</v>
       </c>
@@ -16150,7 +16132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>661</v>
       </c>
@@ -16263,7 +16245,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>662</v>
       </c>
@@ -16374,7 +16356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>663</v>
       </c>
@@ -16485,7 +16467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>664</v>
       </c>
@@ -16598,7 +16580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>665</v>
       </c>
@@ -16711,7 +16693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>666</v>
       </c>
@@ -16824,7 +16806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>669</v>
       </c>
@@ -16937,7 +16919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>670</v>
       </c>
@@ -17048,7 +17030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>671</v>
       </c>
@@ -17159,7 +17141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>672</v>
       </c>
@@ -17272,7 +17254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>673</v>
       </c>
@@ -17385,7 +17367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>674</v>
       </c>
@@ -17496,7 +17478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>675</v>
       </c>
@@ -17607,7 +17589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>676</v>
       </c>
@@ -17716,7 +17698,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>677</v>
       </c>
@@ -17827,7 +17809,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>678</v>
       </c>
@@ -17940,7 +17922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>679</v>
       </c>
@@ -18051,7 +18033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>680</v>
       </c>
@@ -18162,7 +18144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>681</v>
       </c>
@@ -18275,7 +18257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>682</v>
       </c>
@@ -18388,7 +18370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>683</v>
       </c>
@@ -18501,7 +18483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>684</v>
       </c>
@@ -18614,7 +18596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>685</v>
       </c>
@@ -18725,7 +18707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>686</v>
       </c>
@@ -18836,7 +18818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>687</v>
       </c>
@@ -18949,7 +18931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>688</v>
       </c>
@@ -19062,7 +19044,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>689</v>
       </c>
@@ -19192,7 +19174,7 @@
         <v>89</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>80</v>
@@ -19285,24 +19267,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM150">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="27">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI149">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Claim</t>
+    <t>RS Claim</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Claim</t>
+    <t>Road Safety Claim</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Claim</t>
+    <t>RS Claim</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-claim.xlsx
+++ b/StructureDefinition-rs-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
